--- a/referencia-disney.xlsx
+++ b/referencia-disney.xlsx
@@ -117,7 +117,7 @@
     <t>00-{Zé}ro</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>en</t>
   </si>
   <si>
     <t>0. 0. Duck</t>
@@ -147,7 +147,7 @@
     <t>Dentinho</t>
   </si>
   <si>
-    <t>PT</t>
+    <t>pt</t>
   </si>
   <si>
     <t>1973 (protótipo), 1974</t>
@@ -165,7 +165,7 @@
     <t>Agenor</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>it</t>
   </si>
   <si>
     <t>Parrot</t>
@@ -849,12 +849,10 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -871,13 +869,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1251,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1291,7 +1290,7 @@
       <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="2"/>
@@ -1324,7 +1323,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1359,7 +1358,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1393,7 +1392,7 @@
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1428,7 +1427,7 @@
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1463,7 +1462,7 @@
       <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1498,7 +1497,7 @@
       <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -1527,7 +1526,7 @@
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -1556,7 +1555,7 @@
       <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1585,7 +1584,7 @@
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -1614,7 +1613,7 @@
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="2">
@@ -1646,7 +1645,7 @@
       <c r="E14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1681,7 +1680,7 @@
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1707,7 +1706,7 @@
       <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1739,7 +1738,7 @@
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1771,7 +1770,7 @@
       <c r="B18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1803,7 +1802,7 @@
       <c r="E19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1835,7 +1834,7 @@
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1870,7 +1869,7 @@
       <c r="E21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1899,7 +1898,7 @@
       <c r="D22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1934,7 +1933,7 @@
       <c r="B23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1963,7 +1962,7 @@
       <c r="B24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P24" s="2">
@@ -1992,7 +1991,7 @@
       <c r="B25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2027,7 +2026,7 @@
       <c r="E26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2065,7 +2064,7 @@
       <c r="B27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2097,7 +2096,7 @@
       <c r="B28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2129,7 +2128,7 @@
       <c r="B29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2161,7 +2160,7 @@
       <c r="B30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2193,7 +2192,7 @@
       <c r="D31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -2225,7 +2224,7 @@
       <c r="B32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2257,7 +2256,7 @@
       <c r="B33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2292,7 +2291,7 @@
       <c r="E34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2333,7 +2332,7 @@
       <c r="E35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2387,7 +2386,7 @@
         <v>183</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2432,7 +2431,7 @@
       <c r="E37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2470,7 +2469,7 @@
       <c r="E38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2508,7 +2507,7 @@
       <c r="E39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2543,7 +2542,7 @@
       <c r="B40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2572,7 +2571,7 @@
       <c r="B41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2613,7 +2612,7 @@
       <c r="E42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2651,7 +2650,7 @@
       <c r="B43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -2683,7 +2682,7 @@
       <c r="B44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2715,7 +2714,7 @@
       <c r="B45" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -6152,7 +6151,7 @@
       <c r="E2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7317,7 +7316,7 @@
       <c r="B2" s="2">
         <v>313.0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2">
@@ -7349,7 +7348,7 @@
       <c r="B3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -8519,7 +8518,7 @@
       <c r="E2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -8547,7 +8546,7 @@
       <c r="E3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -8576,7 +8575,7 @@
       <c r="B4" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -8603,7 +8602,7 @@
       <c r="B5" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -8629,7 +8628,7 @@
       <c r="B6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -8656,7 +8655,7 @@
       <c r="B7" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -9817,7 +9816,7 @@
       <c r="E2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -9843,7 +9842,7 @@
       <c r="E3" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
